--- a/content/drafts/entitats/Diaris_butlletins_oficials.xlsx
+++ b/content/drafts/entitats/Diaris_butlletins_oficials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/82.Diaris_butlletins_oficials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{9A122D3F-0451-4545-9292-0888944767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898ACC45-C72D-4786-AD94-B2147D25F612}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{9A122D3F-0451-4545-9292-0888944767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A28DFA-A1E1-4AE3-B18D-72FC48D46326}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>Codi</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>Altres</t>
-  </si>
-  <si>
-    <t>Sense informació</t>
   </si>
   <si>
     <t>BOE Supl.</t>
@@ -1059,7 +1056,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1076,7 +1073,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -1127,7 +1124,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1144,7 +1141,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1178,13 +1175,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>89</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>32</v>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>33</v>
@@ -1229,7 +1226,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>34</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>35</v>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>36</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>37</v>
@@ -1297,7 +1294,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>38</v>
@@ -1314,7 +1311,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>39</v>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>40</v>
@@ -1348,7 +1345,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>41</v>
@@ -1365,7 +1362,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>42</v>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>43</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>44</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>45</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>46</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>47</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>48</v>
@@ -1484,7 +1481,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>49</v>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>50</v>
@@ -1518,7 +1515,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>90</v>
@@ -1552,7 +1549,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>91</v>
@@ -1577,9 +1574,7 @@
       <c r="C34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="9" t="s">
         <v>102</v>
       </c>
@@ -1594,9 +1589,7 @@
       <c r="C35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="9" t="s">
         <v>102</v>
       </c>
@@ -1612,24 +1605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1761,10 +1736,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1786,19 +1789,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Diaris_butlletins_oficials.xlsx
+++ b/content/drafts/entitats/Diaris_butlletins_oficials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/82.Diaris_butlletins_oficials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{9A122D3F-0451-4545-9292-0888944767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A28DFA-A1E1-4AE3-B18D-72FC48D46326}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{9A122D3F-0451-4545-9292-0888944767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB1DC38-4B66-4940-AD3F-751C1522E7D5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
-    <t>Codi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom entitat: </t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>030</t>
+  </si>
+  <si>
+    <t>Identificador</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
     <sortCondition ref="D4:D9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{9E08E2CA-736F-4BFA-8DE8-84070D46104B}" name="Codi" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9E08E2CA-736F-4BFA-8DE8-84070D46104B}" name="Identificador" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="3" dataCellStyle="Normal_Hoja2"/>
     <tableColumn id="6" xr3:uid="{0768F31E-FC3B-42E9-B150-51B33AA5E68F}" name="Abreviatura" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
     <tableColumn id="5" xr3:uid="{C52F52B7-5DB3-456E-BF8E-A7BB42B7B17E}" name="Url" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
@@ -1021,7 +1021,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1031,537 +1031,537 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1569,14 +1569,14 @@
         <v>998</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,14 +1584,14 @@
         <v>999</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1605,6 +1605,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1736,25 +1754,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1770,28 +1794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Diaris_butlletins_oficials.xlsx
+++ b/content/drafts/entitats/Diaris_butlletins_oficials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/82.Diaris_butlletins_oficials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{9A122D3F-0451-4545-9292-0888944767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB1DC38-4B66-4940-AD3F-751C1522E7D5}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{9A122D3F-0451-4545-9292-0888944767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2B351F-28EA-4D5F-99F9-583DC56DD23F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
   <si>
     <t xml:space="preserve">Nom entitat: </t>
   </si>
@@ -221,9 +221,6 @@
     <t>BOPV</t>
   </si>
   <si>
-    <t>https://www.congreso.es/ca/busqueda-de-publicaciones</t>
-  </si>
-  <si>
     <t>http://www.juntadeandalucia.es/eboja.html</t>
   </si>
   <si>
@@ -435,6 +432,21 @@
   </si>
   <si>
     <t>Identificador</t>
+  </si>
+  <si>
+    <t>https://www.congreso.es/indice-de-publicaciones?p_p_id=publicaciones&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>N-Lex, legislació estatal dels països de la UE</t>
+  </si>
+  <si>
+    <t>N-Lex</t>
+  </si>
+  <si>
+    <t>https://n-lex.europa.eu/n-lex/index?lang=es</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -558,6 +570,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,7 +752,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:E35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D9">
     <sortCondition ref="D4:D9"/>
   </sortState>
@@ -1015,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1039,7 @@
     <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.44140625" style="1"/>
   </cols>
@@ -1034,29 +1049,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1073,7 +1088,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>26</v>
@@ -1090,7 +1105,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1107,7 +1122,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1124,7 +1139,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -1141,7 +1156,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1158,7 +1173,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -1175,16 +1190,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>29</v>
@@ -1192,7 +1207,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>31</v>
@@ -1201,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>29</v>
@@ -1209,7 +1224,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>32</v>
@@ -1218,7 +1233,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>29</v>
@@ -1226,7 +1241,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>33</v>
@@ -1235,7 +1250,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>29</v>
@@ -1243,7 +1258,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>34</v>
@@ -1252,7 +1267,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>29</v>
@@ -1260,7 +1275,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>35</v>
@@ -1269,7 +1284,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>29</v>
@@ -1277,7 +1292,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>36</v>
@@ -1286,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>29</v>
@@ -1294,7 +1309,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>37</v>
@@ -1303,7 +1318,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>29</v>
@@ -1311,16 +1326,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>29</v>
@@ -1328,16 +1343,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>29</v>
@@ -1345,7 +1360,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>40</v>
@@ -1354,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>29</v>
@@ -1362,7 +1377,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>41</v>
@@ -1371,7 +1386,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>29</v>
@@ -1379,16 +1394,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>29</v>
@@ -1396,7 +1411,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>43</v>
@@ -1405,7 +1420,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>29</v>
@@ -1413,7 +1428,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>44</v>
@@ -1422,7 +1437,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>29</v>
@@ -1430,7 +1445,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>45</v>
@@ -1439,7 +1454,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>29</v>
@@ -1447,7 +1462,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>46</v>
@@ -1456,7 +1471,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>29</v>
@@ -1464,16 +1479,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>29</v>
@@ -1481,16 +1496,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>29</v>
@@ -1498,16 +1513,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>29</v>
@@ -1515,7 +1530,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -1524,74 +1539,91 @@
         <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>998</v>
+      <c r="A34" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E34" s="9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <v>999</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>97</v>
+        <v>998</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>999</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1605,21 +1637,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1755,6 +1787,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1766,14 +1806,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
